--- a/Way2Automation/src/test/java/testdata/CustomerSuite.xlsx
+++ b/Way2Automation/src/test/java/testdata/CustomerSuite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenGrid/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/Desktop/SeleniumBootCamp/Way2Automation/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>TestCases</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Abhigya</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -449,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -490,7 +493,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>

--- a/Way2Automation/src/test/java/testdata/CustomerSuite.xlsx
+++ b/Way2Automation/src/test/java/testdata/CustomerSuite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/Desktop/SeleniumBootCamp/Way2Automation/src/test/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/SeleniumBootCamp/Way2Automation/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -418,6 +418,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
